--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1661.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1661.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.329242582758827</v>
+        <v>3.107667207717896</v>
       </c>
       <c r="B1">
-        <v>3.151692235535673</v>
+        <v>2.419713735580444</v>
       </c>
       <c r="C1">
-        <v>2.667396536599335</v>
+        <v>2.079732656478882</v>
       </c>
       <c r="D1">
-        <v>2.18770046853652</v>
+        <v>2.205829858779907</v>
       </c>
       <c r="E1">
-        <v>1.420998673119445</v>
+        <v>2.630209445953369</v>
       </c>
     </row>
   </sheetData>
